--- a/data/BppTrend/Valid_Import_Files/CAA Valuation Factors 2020.xlsx
+++ b/data/BppTrend/Valid_Import_Files/CAA Valuation Factors 2020.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6760" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6760" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Document Details" sheetId="16" r:id="rId1"/>
@@ -581,7 +581,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -672,7 +672,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5"/>
   <cols>
@@ -748,7 +750,9 @@
       <c r="A9" s="5">
         <v>2012</v>
       </c>
-      <c r="B9" s="8"/>
+      <c r="B9" s="8">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -759,7 +763,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
   <cols>
@@ -911,12 +915,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1137,15 +1138,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6EFFB5BE-0098-48C2-BBB0-46C3FEF9D505}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A3042FB5-FB08-4B9F-9044-0268488FBE5E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1170,10 +1175,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A3042FB5-FB08-4B9F-9044-0268488FBE5E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6EFFB5BE-0098-48C2-BBB0-46C3FEF9D505}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>